--- a/data_exports/test.xlsx
+++ b/data_exports/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD100"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1537,7 +1537,7 @@
         <v>-25.22882510742879</v>
       </c>
       <c r="F12" t="n">
-        <v>1.020037594728243</v>
+        <v>0.9999388243586349</v>
       </c>
       <c r="G12" t="n">
         <v>-162.9926894603148</v>
@@ -1549,7 +1549,7 @@
         <v>0.9999471828247737</v>
       </c>
       <c r="J12" t="n">
-        <v>-86.71900774768879</v>
+        <v>-85.01030070354749</v>
       </c>
       <c r="K12" t="n">
         <v>2.822580476371746</v>
@@ -1570,19 +1570,19 @@
         <v>94.58245600442456</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.58674765652585</v>
+        <v>30.18747847824289</v>
       </c>
       <c r="R12" t="n">
         <v>1.002664804013421</v>
       </c>
       <c r="S12" t="n">
-        <v>0.005556037152164811</v>
+        <v>0.005668847211677187</v>
       </c>
       <c r="T12" t="n">
         <v>0.002512471694509341</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9652518385749894</v>
+        <v>0.9848503607539939</v>
       </c>
       <c r="V12" t="n">
         <v>105.0882519616611</v>
@@ -1597,10 +1597,10 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.003350608373883819</v>
+        <v>-0.003418639295871666</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9760100308878008</v>
+        <v>0.9567787774608379</v>
       </c>
       <c r="AB12" t="n">
         <v>131.3627999804075</v>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
         <v>-25.81098741041015</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999388243586352</v>
+        <v>1.020037594728244</v>
       </c>
       <c r="G14" t="n">
         <v>-162.9926894603148</v>
@@ -1737,7 +1737,7 @@
         <v>0.9999471828247736</v>
       </c>
       <c r="J14" t="n">
-        <v>-85.01030070354746</v>
+        <v>-86.71900774768876</v>
       </c>
       <c r="K14" t="n">
         <v>2.4559370500694</v>
@@ -1758,19 +1758,19 @@
         <v>95.55889784819567</v>
       </c>
       <c r="Q14" t="n">
-        <v>30.37638478459846</v>
+        <v>29.77189472738495</v>
       </c>
       <c r="R14" t="n">
         <v>1.002450216178585</v>
       </c>
       <c r="S14" t="n">
-        <v>0.005668847211677187</v>
+        <v>0.005556037152164811</v>
       </c>
       <c r="T14" t="n">
         <v>0.002512471694509341</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9844335677262465</v>
+        <v>0.9648433397284941</v>
       </c>
       <c r="V14" t="n">
         <v>106.173187343629</v>
@@ -1785,10 +1785,10 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.003418639295871666</v>
+        <v>-0.003350608373883819</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.9562534395902481</v>
+        <v>0.9754741337260121</v>
       </c>
       <c r="AB14" t="n">
         <v>132.7189692078673</v>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>1.020265699470547</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D16" t="n">
         <v>-98.07619036347927</v>
@@ -1922,7 +1922,7 @@
         <v>-15.60262229709707</v>
       </c>
       <c r="I16" t="n">
-        <v>1.020046121199552</v>
+        <v>0.9999471828247736</v>
       </c>
       <c r="J16" t="n">
         <v>-85.01030070354749</v>
@@ -1940,7 +1940,7 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9938987855729744</v>
+        <v>0.9743150530075232</v>
       </c>
       <c r="P16" t="n">
         <v>97.46978292989164</v>
@@ -1961,7 +1961,7 @@
         <v>0.9844695776426402</v>
       </c>
       <c r="V16" t="n">
-        <v>106.1412947694577</v>
+        <v>108.2963929899578</v>
       </c>
       <c r="W16" t="n">
         <v>35.12010166437657</v>
@@ -1973,10 +1973,10 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.003487353945718686</v>
+        <v>-0.003418639295871666</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.9375060503140634</v>
+        <v>0.9565412206040848</v>
       </c>
       <c r="AB16" t="n">
         <v>135.3729762657784</v>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>1.000162434536366</v>
+        <v>1.020265699470547</v>
       </c>
       <c r="D18" t="n">
         <v>-98.28384455588309</v>
@@ -2110,7 +2110,7 @@
         <v>-15.19983948353967</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9999471828247736</v>
+        <v>1.020046121199552</v>
       </c>
       <c r="J18" t="n">
         <v>-85.01030070354749</v>
@@ -2128,7 +2128,7 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9747752212462241</v>
+        <v>0.9943682031932732</v>
       </c>
       <c r="P18" t="n">
         <v>97.53143065989882</v>
@@ -2149,7 +2149,7 @@
         <v>0.984849286968918</v>
       </c>
       <c r="V18" t="n">
-        <v>108.3648904677436</v>
+        <v>106.2084291474355</v>
       </c>
       <c r="W18" t="n">
         <v>34.78006582856387</v>
@@ -2161,10 +2161,10 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.003418639295871666</v>
+        <v>-0.003487353945718686</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.9571400465872153</v>
+        <v>0.9380929596601297</v>
       </c>
       <c r="AB18" t="n">
         <v>135.4585981130106</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
         <v>0.999938824358635</v>
       </c>
       <c r="G29" t="n">
-        <v>-166.2688425184671</v>
+        <v>-162.9926894603148</v>
       </c>
       <c r="H29" t="n">
         <v>-16.85627486256908</v>
@@ -3156,7 +3156,7 @@
         <v>0.9856917716385855</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.001580005508268194</v>
+        <v>-0.001612086020067537</v>
       </c>
       <c r="N29" t="n">
         <v>0.00572361854919807</v>
@@ -3168,7 +3168,7 @@
         <v>97.38356524826844</v>
       </c>
       <c r="Q29" t="n">
-        <v>31.62027320239189</v>
+        <v>30.99722890147229</v>
       </c>
       <c r="R29" t="n">
         <v>1.001854284714971</v>
@@ -3177,7 +3177,7 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T29" t="n">
-        <v>0.002562972375568979</v>
+        <v>0.002512471694509341</v>
       </c>
       <c r="U29" t="n">
         <v>0.98328487869894</v>
@@ -3198,7 +3198,7 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.9738733043874239</v>
+        <v>0.9546841529138554</v>
       </c>
       <c r="AB29" t="n">
         <v>135.2532294857462</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
         <v>0.9999388243586349</v>
       </c>
       <c r="G31" t="n">
-        <v>-162.9926894603148</v>
+        <v>-166.2688425184671</v>
       </c>
       <c r="H31" t="n">
         <v>-17.64177918204047</v>
@@ -3344,7 +3344,7 @@
         <v>0.9850932328881229</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.001612086020067537</v>
+        <v>-0.001580005508268194</v>
       </c>
       <c r="N31" t="n">
         <v>0.00572361854919807</v>
@@ -3356,7 +3356,7 @@
         <v>97.18019284222582</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.57169909493069</v>
+        <v>32.2062902467388</v>
       </c>
       <c r="R31" t="n">
         <v>1.001471350835703</v>
@@ -3365,7 +3365,7 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T31" t="n">
-        <v>0.002512471694509341</v>
+        <v>0.002562972375568979</v>
       </c>
       <c r="U31" t="n">
         <v>0.9825473929515747</v>
@@ -3386,7 +3386,7 @@
         <v>-0.003418639295871666</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.9535095058142097</v>
+        <v>0.9726750468810753</v>
       </c>
       <c r="AB31" t="n">
         <v>134.9707678106869</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -3714,19 +3714,19 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7438605364315554</v>
+        <v>0.7292035451735667</v>
       </c>
       <c r="L35" t="n">
         <v>0.9848988820343192</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.001644488949070895</v>
+        <v>-0.001612086020067537</v>
       </c>
       <c r="N35" t="n">
         <v>0.00572361854919807</v>
       </c>
       <c r="O35" t="n">
-        <v>0.9913839192943545</v>
+        <v>0.9718497395298055</v>
       </c>
       <c r="P35" t="n">
         <v>95.56671030523644</v>
@@ -3741,10 +3741,10 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T35" t="n">
-        <v>0.002462473507788605</v>
+        <v>0.002512471694509341</v>
       </c>
       <c r="U35" t="n">
-        <v>0.9629361831537422</v>
+        <v>0.9824876881478851</v>
       </c>
       <c r="V35" t="n">
         <v>106.1818678514521</v>
@@ -3759,10 +3759,10 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.003350608373883819</v>
+        <v>-0.003418639295871666</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.9723788125879469</v>
+        <v>0.9532191085069571</v>
       </c>
       <c r="AB35" t="n">
         <v>132.7298198426462</v>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -3902,19 +3902,19 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K37" t="n">
-        <v>1.678277750606133</v>
+        <v>1.712011133393316</v>
       </c>
       <c r="L37" t="n">
         <v>0.9858205126851551</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.001612086020067537</v>
+        <v>-0.001644488949070895</v>
       </c>
       <c r="N37" t="n">
         <v>0.00572361854919807</v>
       </c>
       <c r="O37" t="n">
-        <v>0.9731740901262889</v>
+        <v>0.9927348893378273</v>
       </c>
       <c r="P37" t="n">
         <v>96.42442244816837</v>
@@ -3929,10 +3929,10 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T37" t="n">
-        <v>0.002512471694509341</v>
+        <v>0.002462473507788605</v>
       </c>
       <c r="U37" t="n">
-        <v>0.9835556960916626</v>
+        <v>0.9639829377394384</v>
       </c>
       <c r="V37" t="n">
         <v>107.1348813435987</v>
@@ -3947,10 +3947,10 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.003418639295871666</v>
+        <v>-0.003350608373883819</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.9549916305238114</v>
+        <v>0.97418696229734</v>
       </c>
       <c r="AB37" t="n">
         <v>133.9210867078294</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>-31.3635247536394</v>
       </c>
       <c r="F43" t="n">
-        <v>1.020037594728243</v>
+        <v>0.9999388243586349</v>
       </c>
       <c r="G43" t="n">
         <v>-162.9926894603148</v>
@@ -4466,13 +4466,13 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.007337534404005</v>
+        <v>-0.9874890053955544</v>
       </c>
       <c r="L43" t="n">
         <v>0.9837331915532205</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.001580005508268194</v>
+        <v>-0.001612086020067537</v>
       </c>
       <c r="N43" t="n">
         <v>0.00572361854919807</v>
@@ -4481,7 +4481,7 @@
         <v>0.9696638213699093</v>
       </c>
       <c r="P43" t="n">
-        <v>97.79759380077937</v>
+        <v>99.78328109456113</v>
       </c>
       <c r="Q43" t="n">
         <v>32.69370044714918</v>
@@ -4496,7 +4496,7 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U43" t="n">
-        <v>1.00027108577512</v>
+        <v>0.9805617937213218</v>
       </c>
       <c r="V43" t="n">
         <v>110.8669465062573</v>
@@ -4508,7 +4508,7 @@
         <v>0.9928742335984354</v>
       </c>
       <c r="Y43" t="n">
-        <v>-0.0008794700726109975</v>
+        <v>-0.0008621410377521787</v>
       </c>
       <c r="Z43" t="n">
         <v>-0.003418639295871666</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -4639,7 +4639,7 @@
         <v>-30.94238650349983</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9999388243586349</v>
+        <v>1.020037594728243</v>
       </c>
       <c r="G45" t="n">
         <v>-162.9926894603148</v>
@@ -4654,13 +4654,13 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.7433420682322042</v>
+        <v>-0.7582832438036714</v>
       </c>
       <c r="L45" t="n">
         <v>0.983908966810677</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.001612086020067537</v>
+        <v>-0.001580005508268194</v>
       </c>
       <c r="N45" t="n">
         <v>0.00572361854919807</v>
@@ -4669,7 +4669,7 @@
         <v>0.9699792716537373</v>
       </c>
       <c r="P45" t="n">
-        <v>99.25229889877582</v>
+        <v>97.27717815069018</v>
       </c>
       <c r="Q45" t="n">
         <v>32.56526391725</v>
@@ -4684,7 +4684,7 @@
         <v>0.002512471694509341</v>
       </c>
       <c r="U45" t="n">
-        <v>0.980833666789299</v>
+        <v>1.000548423491764</v>
       </c>
       <c r="V45" t="n">
         <v>110.2769662887181</v>
@@ -4696,7 +4696,7 @@
         <v>0.9930433058420119</v>
       </c>
       <c r="Y45" t="n">
-        <v>-0.0008621410377521787</v>
+        <v>-0.0008794700726109975</v>
       </c>
       <c r="Z45" t="n">
         <v>-0.003418639295871666</v>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
         <v>-108.2408234230765</v>
       </c>
       <c r="E46" t="n">
-        <v>-31.91677918521303</v>
+        <v>-31.28789254505737</v>
       </c>
       <c r="F46" t="n">
         <v>0.999938824358635</v>
@@ -4739,7 +4739,7 @@
         <v>-162.9926894603148</v>
       </c>
       <c r="H46" t="n">
-        <v>-19.93617865522852</v>
+        <v>-19.5433571759911</v>
       </c>
       <c r="I46" t="n">
         <v>0.9999471828247737</v>
@@ -4751,7 +4751,7 @@
         <v>-0.9060323828536473</v>
       </c>
       <c r="L46" t="n">
-        <v>1.003623288941939</v>
+        <v>0.9838479452425637</v>
       </c>
       <c r="M46" t="n">
         <v>-0.001612086020067537</v>
@@ -4766,7 +4766,7 @@
         <v>100.3459776046148</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.89781238267417</v>
+        <v>32.54546717954716</v>
       </c>
       <c r="R46" t="n">
         <v>1.000482539291378</v>
@@ -4775,10 +4775,10 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T46" t="n">
-        <v>0.002462473507788605</v>
+        <v>0.002512471694509341</v>
       </c>
       <c r="U46" t="n">
-        <v>1.000368782389892</v>
+        <v>0.9806575653268227</v>
       </c>
       <c r="V46" t="n">
         <v>111.4921648507614</v>
@@ -4793,7 +4793,7 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z46" t="n">
-        <v>-0.003350608373883819</v>
+        <v>-0.003418639295871666</v>
       </c>
       <c r="AA46" t="n">
         <v>0.9509138084451744</v>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4918,7 @@
         <v>-103.0690670501121</v>
       </c>
       <c r="E48" t="n">
-        <v>-30.97173359953918</v>
+        <v>-31.59426544488991</v>
       </c>
       <c r="F48" t="n">
         <v>0.999938824358635</v>
@@ -4927,7 +4927,7 @@
         <v>-162.9926894603148</v>
       </c>
       <c r="H48" t="n">
-        <v>-19.44627298600346</v>
+        <v>-19.83714307302213</v>
       </c>
       <c r="I48" t="n">
         <v>0.9999471828247737</v>
@@ -4939,7 +4939,7 @@
         <v>-0.7807531914944495</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9838454601223399</v>
+        <v>1.003620753870799</v>
       </c>
       <c r="M48" t="n">
         <v>-0.001612086020067537</v>
@@ -4954,7 +4954,7 @@
         <v>98.87150601572468</v>
       </c>
       <c r="Q48" t="n">
-        <v>32.64926469345345</v>
+        <v>31.99954432605373</v>
       </c>
       <c r="R48" t="n">
         <v>1.000555861906565</v>
@@ -4963,10 +4963,10 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T48" t="n">
-        <v>0.002512471694509341</v>
+        <v>0.002462473507788605</v>
       </c>
       <c r="U48" t="n">
-        <v>0.9807896399368442</v>
+        <v>1.000503511699575</v>
       </c>
       <c r="V48" t="n">
         <v>109.8538630853279</v>
@@ -4981,7 +4981,7 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z48" t="n">
-        <v>-0.003418639295871666</v>
+        <v>-0.003350608373883819</v>
       </c>
       <c r="AA48" t="n">
         <v>0.9509598593407014</v>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
         <v>-0.9248133518687444</v>
       </c>
       <c r="L49" t="n">
-        <v>1.003384906351299</v>
+        <v>0.9836142597307114</v>
       </c>
       <c r="M49" t="n">
         <v>-0.001612086020067537</v>
@@ -5051,7 +5051,7 @@
         <v>32.93778184840007</v>
       </c>
       <c r="R49" t="n">
-        <v>0.9805621634944202</v>
+        <v>1.0004715472854</v>
       </c>
       <c r="S49" t="n">
         <v>0.005668847211677187</v>
@@ -5063,13 +5063,13 @@
         <v>0.9806234004699969</v>
       </c>
       <c r="V49" t="n">
-        <v>106.3116977167089</v>
+        <v>108.4702558072736</v>
       </c>
       <c r="W49" t="n">
         <v>38.42665715700961</v>
       </c>
       <c r="X49" t="n">
-        <v>1.012830960723706</v>
+        <v>0.9928741895144655</v>
       </c>
       <c r="Y49" t="n">
         <v>-0.0008621410377521787</v>
@@ -5081,14 +5081,14 @@
         <v>0.9505574302782658</v>
       </c>
       <c r="AB49" t="n">
-        <v>138.3156699136502</v>
+        <v>135.590304787423</v>
       </c>
       <c r="AC49" t="n">
         <v>54.88817537353423</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
         <v>0.2014966132857746</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9845301853036499</v>
+        <v>1.004319242028253</v>
       </c>
       <c r="M51" t="n">
         <v>-0.001612086020067537</v>
@@ -5239,7 +5239,7 @@
         <v>32.1259234740315</v>
       </c>
       <c r="R51" t="n">
-        <v>1.001130747340901</v>
+        <v>0.9812082454688168</v>
       </c>
       <c r="S51" t="n">
         <v>0.005668847211677187</v>
@@ -5251,13 +5251,13 @@
         <v>0.9818915337497549</v>
       </c>
       <c r="V51" t="n">
-        <v>107.3933963138839</v>
+        <v>105.2562677272376</v>
       </c>
       <c r="W51" t="n">
         <v>37.47948905357962</v>
       </c>
       <c r="X51" t="n">
-        <v>0.9936877541240804</v>
+        <v>1.013660877981974</v>
       </c>
       <c r="Y51" t="n">
         <v>-0.0008621410377521787</v>
@@ -5269,14 +5269,14 @@
         <v>0.9524229203971188</v>
       </c>
       <c r="AB51" t="n">
-        <v>134.2442304206859</v>
+        <v>136.9425394521417</v>
       </c>
       <c r="AC51" t="n">
         <v>53.53507808291995</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
         <v>0.9999471828247739</v>
       </c>
       <c r="J56" t="n">
-        <v>-83.31859571954689</v>
+        <v>-85.01030070354749</v>
       </c>
       <c r="K56" t="n">
         <v>-0.3242871899215578</v>
@@ -5694,7 +5694,7 @@
         <v>0.9843954568445293</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.001580005508268194</v>
+        <v>-0.001612086020067537</v>
       </c>
       <c r="N56" t="n">
         <v>0.00572361854919807</v>
@@ -5706,7 +5706,7 @@
         <v>100.7637022987796</v>
       </c>
       <c r="Q56" t="n">
-        <v>32.64363650876226</v>
+        <v>32.00042790781517</v>
       </c>
       <c r="R56" t="n">
         <v>1.000823019562515</v>
@@ -5715,7 +5715,7 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T56" t="n">
-        <v>0.002462473507788605</v>
+        <v>0.002512471694509341</v>
       </c>
       <c r="U56" t="n">
         <v>0.9813163268950739</v>
@@ -5727,7 +5727,7 @@
         <v>37.33307755966059</v>
       </c>
       <c r="X56" t="n">
-        <v>0.973618477856558</v>
+        <v>0.9933868767029467</v>
       </c>
       <c r="Y56" t="n">
         <v>-0.0008621410377521787</v>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -5758,7 +5758,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>1.020265699470547</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D57" t="n">
         <v>-109.5993730789704</v>
@@ -5782,7 +5782,7 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.6243232082391549</v>
+        <v>-0.6120215745898979</v>
       </c>
       <c r="L57" t="n">
         <v>0.9841377681358177</v>
@@ -5800,7 +5800,7 @@
         <v>100.7355855200452</v>
       </c>
       <c r="Q57" t="n">
-        <v>31.60258661794494</v>
+        <v>32.24424713595035</v>
       </c>
       <c r="R57" t="n">
         <v>1.000654616104465</v>
@@ -5809,7 +5809,7 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T57" t="n">
-        <v>0.002562972375568979</v>
+        <v>0.002512471694509341</v>
       </c>
       <c r="U57" t="n">
         <v>0.9809919449543451</v>
@@ -5827,20 +5827,20 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z57" t="n">
-        <v>-0.003487353945718686</v>
+        <v>-0.003418639295871666</v>
       </c>
       <c r="AA57" t="n">
         <v>0.9514769312272722</v>
       </c>
       <c r="AB57" t="n">
-        <v>137.1246278139358</v>
+        <v>139.9088131965471</v>
       </c>
       <c r="AC57" t="n">
         <v>53.73228418611806</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
         <v>0.9999471828247737</v>
       </c>
       <c r="J58" t="n">
-        <v>-85.01030070354749</v>
+        <v>-83.31859571954689</v>
       </c>
       <c r="K58" t="n">
         <v>-1.229865381424981</v>
@@ -5882,7 +5882,7 @@
         <v>0.9836755104976926</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.001612086020067537</v>
+        <v>-0.001580005508268194</v>
       </c>
       <c r="N58" t="n">
         <v>0.00572361854919807</v>
@@ -5894,7 +5894,7 @@
         <v>101.9782397862596</v>
       </c>
       <c r="Q58" t="n">
-        <v>32.57382849486193</v>
+        <v>33.22856244760865</v>
       </c>
       <c r="R58" t="n">
         <v>1.000293008417699</v>
@@ -5903,7 +5903,7 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T58" t="n">
-        <v>0.002512471694509341</v>
+        <v>0.002462473507788605</v>
       </c>
       <c r="U58" t="n">
         <v>0.9803083630724331</v>
@@ -5915,7 +5915,7 @@
         <v>38.00204491121514</v>
       </c>
       <c r="X58" t="n">
-        <v>0.9927443892604922</v>
+        <v>0.9729887759142084</v>
       </c>
       <c r="Y58" t="n">
         <v>-0.0008621410377521787</v>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>1.000162434536366</v>
+        <v>1.020265699470547</v>
       </c>
       <c r="D59" t="n">
         <v>-120.8157244596916</v>
@@ -5970,7 +5970,7 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K59" t="n">
-        <v>-2.3454601143905</v>
+        <v>-2.392603862689749</v>
       </c>
       <c r="L59" t="n">
         <v>0.9828059470694805</v>
@@ -5988,7 +5988,7 @@
         <v>103.9162220407424</v>
       </c>
       <c r="Q59" t="n">
-        <v>33.19879097368083</v>
+        <v>32.53813503330458</v>
       </c>
       <c r="R59" t="n">
         <v>0.9996400810628938</v>
@@ -5997,7 +5997,7 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T59" t="n">
-        <v>0.002512471694509341</v>
+        <v>0.002562972375568979</v>
       </c>
       <c r="U59" t="n">
         <v>0.9790780940273435</v>
@@ -6015,20 +6015,20 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z59" t="n">
-        <v>-0.003418639295871666</v>
+        <v>-0.003487353945718686</v>
       </c>
       <c r="AA59" t="n">
         <v>0.9487945409940497</v>
       </c>
       <c r="AB59" t="n">
-        <v>144.3263639197377</v>
+        <v>141.454269277735</v>
       </c>
       <c r="AC59" t="n">
         <v>55.32319058233552</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -6043,13 +6043,13 @@
         <v>1.000162434536366</v>
       </c>
       <c r="D60" t="n">
-        <v>-130.0834722837644</v>
+        <v>-127.5203139729089</v>
       </c>
       <c r="E60" t="n">
         <v>-34.87498344456495</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9800400417538981</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G60" t="n">
         <v>-162.9926894603148</v>
@@ -6061,13 +6061,13 @@
         <v>0.9999471828247736</v>
       </c>
       <c r="J60" t="n">
-        <v>-83.31859571954689</v>
+        <v>-85.01030070354749</v>
       </c>
       <c r="K60" t="n">
         <v>-2.746760649713105</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9630007418673726</v>
+        <v>0.9825535576649042</v>
       </c>
       <c r="M60" t="n">
         <v>-0.001612086020067537</v>
@@ -6085,7 +6085,7 @@
         <v>33.22024979411243</v>
       </c>
       <c r="R60" t="n">
-        <v>1.01949325573877</v>
+        <v>0.9994052109977162</v>
       </c>
       <c r="S60" t="n">
         <v>0.005668847211677187</v>
@@ -6118,11 +6118,11 @@
         <v>146.9693670018837</v>
       </c>
       <c r="AC60" t="n">
-        <v>54.25731207292205</v>
+        <v>55.35895528305485</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>1.020265699470547</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D61" t="n">
         <v>-124.6220894548166</v>
@@ -6146,7 +6146,7 @@
         <v>0.9999388243586349</v>
       </c>
       <c r="G61" t="n">
-        <v>-166.2688425184672</v>
+        <v>-162.9926894603148</v>
       </c>
       <c r="H61" t="n">
         <v>-21.80729777846454</v>
@@ -6158,7 +6158,7 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.896280698046566</v>
+        <v>-2.955086927912015</v>
       </c>
       <c r="L61" t="n">
         <v>0.9823247174039194</v>
@@ -6167,13 +6167,13 @@
         <v>-0.001612086020067537</v>
       </c>
       <c r="N61" t="n">
-        <v>0.005838663282036952</v>
+        <v>0.00572361854919807</v>
       </c>
       <c r="O61" t="n">
         <v>0.967117790872198</v>
       </c>
       <c r="P61" t="n">
-        <v>102.9043874281302</v>
+        <v>104.9937633181616</v>
       </c>
       <c r="Q61" t="n">
         <v>33.52915717745378</v>
@@ -6182,13 +6182,13 @@
         <v>0.9992832834634165</v>
       </c>
       <c r="S61" t="n">
-        <v>0.005556037152164811</v>
+        <v>0.005668847211677187</v>
       </c>
       <c r="T61" t="n">
         <v>0.002512471694509341</v>
       </c>
       <c r="U61" t="n">
-        <v>0.9589394710672308</v>
+        <v>0.9784098266169072</v>
       </c>
       <c r="V61" t="n">
         <v>116.6563711991467</v>
@@ -6203,7 +6203,7 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z61" t="n">
-        <v>-0.003487353945718686</v>
+        <v>-0.003418639295871666</v>
       </c>
       <c r="AA61" t="n">
         <v>0.9478439152608782</v>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="AD61" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -6231,13 +6231,13 @@
         <v>1.000162434536366</v>
       </c>
       <c r="D62" t="n">
-        <v>-129.0898726392954</v>
+        <v>-131.6845790793452</v>
       </c>
       <c r="E62" t="n">
         <v>-35.3953337941378</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9999388243586352</v>
+        <v>0.9800400417538984</v>
       </c>
       <c r="G62" t="n">
         <v>-162.9926894603148</v>
@@ -6249,13 +6249,13 @@
         <v>0.9999471828247737</v>
       </c>
       <c r="J62" t="n">
-        <v>-85.01030070354749</v>
+        <v>-83.31859571954689</v>
       </c>
       <c r="K62" t="n">
         <v>-3.031105803347026</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9823226850282147</v>
+        <v>0.9627744635961533</v>
       </c>
       <c r="M62" t="n">
         <v>-0.001612086020067537</v>
@@ -6273,7 +6273,7 @@
         <v>33.38068808255632</v>
       </c>
       <c r="R62" t="n">
-        <v>0.9992387917544999</v>
+        <v>1.019323491468765</v>
       </c>
       <c r="S62" t="n">
         <v>0.005668847211677187</v>
@@ -6306,11 +6306,11 @@
         <v>147.5854488121185</v>
       </c>
       <c r="AC62" t="n">
-        <v>55.62635243046135</v>
+        <v>54.51938801709517</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>1.000162434536366</v>
+        <v>1.020265699470547</v>
       </c>
       <c r="D63" t="n">
         <v>-136.0341407964472</v>
@@ -6334,7 +6334,7 @@
         <v>0.999938824358635</v>
       </c>
       <c r="G63" t="n">
-        <v>-162.9926894603148</v>
+        <v>-166.2688425184671</v>
       </c>
       <c r="H63" t="n">
         <v>-22.17889205603018</v>
@@ -6346,7 +6346,7 @@
         <v>-85.01030070354749</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.378569373052352</v>
+        <v>-3.31133584252861</v>
       </c>
       <c r="L63" t="n">
         <v>0.9821015151880526</v>
@@ -6355,13 +6355,13 @@
         <v>-0.001612086020067537</v>
       </c>
       <c r="N63" t="n">
-        <v>0.00572361854919807</v>
+        <v>0.005838663282036952</v>
       </c>
       <c r="O63" t="n">
         <v>0.9665931656925479</v>
       </c>
       <c r="P63" t="n">
-        <v>108.2311706855038</v>
+        <v>106.0773703888623</v>
       </c>
       <c r="Q63" t="n">
         <v>33.32630228800505</v>
@@ -6370,13 +6370,13 @@
         <v>0.9990354311661958</v>
       </c>
       <c r="S63" t="n">
-        <v>0.005668847211677187</v>
+        <v>0.005556037152164811</v>
       </c>
       <c r="T63" t="n">
         <v>0.002512471694509341</v>
       </c>
       <c r="U63" t="n">
-        <v>0.9780033048888199</v>
+        <v>0.9585410391215324</v>
       </c>
       <c r="V63" t="n">
         <v>120.2534904961936</v>
@@ -6391,7 +6391,7 @@
         <v>-0.0008621410377521787</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.003418639295871666</v>
+        <v>-0.003487353945718686</v>
       </c>
       <c r="AA63" t="n">
         <v>0.94746158338576</v>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="AD63" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
         <v>-21.84759762021372</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9800482338865606</v>
+        <v>0.9999471828247737</v>
       </c>
       <c r="J69" t="n">
         <v>-85.01030070354749</v>
@@ -6916,13 +6916,13 @@
         <v>0.9823324474450853</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.001580005508268194</v>
+        <v>-0.001612086020067537</v>
       </c>
       <c r="N69" t="n">
         <v>0.00572361854919807</v>
       </c>
       <c r="O69" t="n">
-        <v>0.9864552369491393</v>
+        <v>0.9670181716980093</v>
       </c>
       <c r="P69" t="n">
         <v>106.8651785634764</v>
@@ -6943,13 +6943,13 @@
         <v>0.9783379478898775</v>
       </c>
       <c r="V69" t="n">
-        <v>116.3728806144315</v>
+        <v>118.7357214717187</v>
       </c>
       <c r="W69" t="n">
         <v>38.84411821304882</v>
       </c>
       <c r="X69" t="n">
-        <v>1.011443899715143</v>
+        <v>0.9915144590874846</v>
       </c>
       <c r="Y69" t="n">
         <v>-0.0008621410377521787</v>
@@ -6968,7 +6968,7 @@
       </c>
       <c r="AD69" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
         <v>-21.6033202999979</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9999471828247736</v>
+        <v>0.9800482338865605</v>
       </c>
       <c r="J71" t="n">
         <v>-85.01030070354749</v>
@@ -7104,13 +7104,13 @@
         <v>0.9825285601558995</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.001612086020067537</v>
+        <v>-0.001580005508268194</v>
       </c>
       <c r="N71" t="n">
         <v>0.00572361854919807</v>
       </c>
       <c r="O71" t="n">
-        <v>0.9672639355511478</v>
+        <v>0.9867059406557258</v>
       </c>
       <c r="P71" t="n">
         <v>107.8839141596103</v>
@@ -7131,13 +7131,13 @@
         <v>0.9785527842788183</v>
       </c>
       <c r="V71" t="n">
-        <v>119.8676499118674</v>
+        <v>117.4822836786213</v>
       </c>
       <c r="W71" t="n">
         <v>38.47378380265833</v>
       </c>
       <c r="X71" t="n">
-        <v>0.9916663246429591</v>
+        <v>1.011598817768283</v>
       </c>
       <c r="Y71" t="n">
         <v>-0.0008621410377521787</v>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="AD71" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -7544,7 +7544,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9802592020890926</v>
+        <v>1.000162434536366</v>
       </c>
       <c r="D76" t="n">
         <v>-146.8265552024881</v>
@@ -7553,7 +7553,7 @@
         <v>-35.82727984519754</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9800400417538981</v>
+        <v>0.999938824358635</v>
       </c>
       <c r="G76" t="n">
         <v>-162.9926894603148</v>
@@ -7562,7 +7562,7 @@
         <v>-21.11678760935865</v>
       </c>
       <c r="I76" t="n">
-        <v>1.020046121199552</v>
+        <v>0.9999471828247739</v>
       </c>
       <c r="J76" t="n">
         <v>-85.01030070354749</v>
@@ -7586,7 +7586,7 @@
         <v>111.2961672054564</v>
       </c>
       <c r="Q76" t="n">
-        <v>32.76239723952487</v>
+        <v>32.11684858300644</v>
       </c>
       <c r="R76" t="n">
         <v>0.9994923987133049</v>
@@ -7610,7 +7610,7 @@
         <v>0.9919687994601818</v>
       </c>
       <c r="Y76" t="n">
-        <v>-0.0008449844311009104</v>
+        <v>-0.0008621410377521787</v>
       </c>
       <c r="Z76" t="n">
         <v>-0.003418639295871666</v>
@@ -7622,11 +7622,11 @@
         <v>154.5762877596182</v>
       </c>
       <c r="AC76" t="n">
-        <v>52.45490619458043</v>
+        <v>53.51995326454487</v>
       </c>
       <c r="AD76" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -7732,7 +7732,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>1.000162434536366</v>
+        <v>0.9802592020890926</v>
       </c>
       <c r="D78" t="n">
         <v>-150.3307295659754</v>
@@ -7741,7 +7741,7 @@
         <v>-34.44820278481455</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9999388243586348</v>
+        <v>0.9800400417538979</v>
       </c>
       <c r="G78" t="n">
         <v>-162.9926894603148</v>
@@ -7750,7 +7750,7 @@
         <v>-19.81364198624942</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9999471828247737</v>
+        <v>1.020046121199552</v>
       </c>
       <c r="J78" t="n">
         <v>-85.01030070354749</v>
@@ -7774,7 +7774,7 @@
         <v>112.2963905472184</v>
       </c>
       <c r="Q78" t="n">
-        <v>31.0477913622683</v>
+        <v>31.67185196864989</v>
       </c>
       <c r="R78" t="n">
         <v>1.000111492630509</v>
@@ -7798,7 +7798,7 @@
         <v>0.9927789630863381</v>
       </c>
       <c r="Y78" t="n">
-        <v>-0.0008621410377521787</v>
+        <v>-0.0008449844311009104</v>
       </c>
       <c r="Z78" t="n">
         <v>-0.003418639295871666</v>
@@ -7810,11 +7810,11 @@
         <v>155.9654868453988</v>
       </c>
       <c r="AC78" t="n">
-        <v>51.73819122998129</v>
+        <v>50.70860122450466</v>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
         <v>0.9999471828247737</v>
       </c>
       <c r="J82" t="n">
-        <v>-83.31859571954689</v>
+        <v>-85.01030070354749</v>
       </c>
       <c r="K82" t="n">
         <v>-2.215334077404686</v>
@@ -8141,13 +8141,13 @@
         <v>-0.001612086020067537</v>
       </c>
       <c r="N82" t="n">
-        <v>0.005609718540069029</v>
+        <v>0.00572361854919807</v>
       </c>
       <c r="O82" t="n">
         <v>0.9682125387878013</v>
       </c>
       <c r="P82" t="n">
-        <v>115.6143559771859</v>
+        <v>113.3362964191608</v>
       </c>
       <c r="Q82" t="n">
         <v>31.40247664820864</v>
@@ -8159,10 +8159,10 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T82" t="n">
-        <v>0.002462473507788605</v>
+        <v>0.002512471694509341</v>
       </c>
       <c r="U82" t="n">
-        <v>0.9991579880185026</v>
+        <v>0.9794706283879058</v>
       </c>
       <c r="V82" t="n">
         <v>125.9258524224791</v>
@@ -8171,7 +8171,7 @@
         <v>36.6354677567863</v>
       </c>
       <c r="X82" t="n">
-        <v>1.012254520022439</v>
+        <v>0.9923091069722961</v>
       </c>
       <c r="Y82" t="n">
         <v>-0.0008621410377521787</v>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
         <v>0.9999471828247739</v>
       </c>
       <c r="J84" t="n">
-        <v>-85.01030070354749</v>
+        <v>-83.31859571954689</v>
       </c>
       <c r="K84" t="n">
         <v>-2.624395209230949</v>
@@ -8329,13 +8329,13 @@
         <v>-0.001612086020067537</v>
       </c>
       <c r="N84" t="n">
-        <v>0.00572361854919807</v>
+        <v>0.005609718540069029</v>
       </c>
       <c r="O84" t="n">
         <v>0.9676544237014669</v>
       </c>
       <c r="P84" t="n">
-        <v>114.8765091104301</v>
+        <v>117.1855269435498</v>
       </c>
       <c r="Q84" t="n">
         <v>31.4285540521745</v>
@@ -8347,10 +8347,10 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T84" t="n">
-        <v>0.002512471694509341</v>
+        <v>0.002462473507788605</v>
       </c>
       <c r="U84" t="n">
-        <v>0.9790695978377647</v>
+        <v>0.9987488967543038</v>
       </c>
       <c r="V84" t="n">
         <v>127.6371998572228</v>
@@ -8359,7 +8359,7 @@
         <v>36.66589139474647</v>
       </c>
       <c r="X84" t="n">
-        <v>0.992051377532875</v>
+        <v>1.011991610221286</v>
       </c>
       <c r="Y84" t="n">
         <v>-0.0008621410377521787</v>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="AD84" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -8781,10 +8781,10 @@
         <v>-162.9926894603148</v>
       </c>
       <c r="H89" t="n">
-        <v>-23.57774991671674</v>
+        <v>-23.11317509726177</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9800482338865605</v>
+        <v>0.9999471828247736</v>
       </c>
       <c r="J89" t="n">
         <v>-85.01030070354749</v>
@@ -8802,7 +8802,7 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O89" t="n">
-        <v>0.9456083599293392</v>
+        <v>0.9648080399238234</v>
       </c>
       <c r="P89" t="n">
         <v>120.9523545573604</v>
@@ -8817,7 +8817,7 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T89" t="n">
-        <v>0.002462473507788605</v>
+        <v>0.002512471694509341</v>
       </c>
       <c r="U89" t="n">
         <v>0.9770573078797261</v>
@@ -8832,7 +8832,7 @@
         <v>0.9907276621166851</v>
       </c>
       <c r="Y89" t="n">
-        <v>-0.0008449844311009104</v>
+        <v>-0.0008621410377521787</v>
       </c>
       <c r="Z89" t="n">
         <v>-0.003418639295871666</v>
@@ -8844,11 +8844,11 @@
         <v>167.9876590817071</v>
       </c>
       <c r="AC89" t="n">
-        <v>51.90351665883024</v>
+        <v>52.9573682877566</v>
       </c>
       <c r="AD89" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>no_attack</t>
         </is>
       </c>
     </row>
@@ -8969,10 +8969,10 @@
         <v>-162.9926894603148</v>
       </c>
       <c r="H91" t="n">
-        <v>-22.1429527807922</v>
+        <v>-22.58802613168612</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9999471828247734</v>
+        <v>0.9800482338865603</v>
       </c>
       <c r="J91" t="n">
         <v>-85.01030070354749</v>
@@ -8990,7 +8990,7 @@
         <v>0.00572361854919807</v>
       </c>
       <c r="O91" t="n">
-        <v>0.9659439438868411</v>
+        <v>0.9467216594034931</v>
       </c>
       <c r="P91" t="n">
         <v>120.656131969604</v>
@@ -9005,7 +9005,7 @@
         <v>0.005668847211677187</v>
       </c>
       <c r="T91" t="n">
-        <v>0.002512471694509341</v>
+        <v>0.002462473507788605</v>
       </c>
       <c r="U91" t="n">
         <v>0.9779729372085031</v>
@@ -9020,7 +9020,7 @@
         <v>0.9913308391159776</v>
       </c>
       <c r="Y91" t="n">
-        <v>-0.0008621410377521787</v>
+        <v>-0.0008449844311009104</v>
       </c>
       <c r="Z91" t="n">
         <v>-0.003418639295871666</v>
@@ -9032,11 +9032,11 @@
         <v>167.5762388209343</v>
       </c>
       <c r="AC91" t="n">
-        <v>51.93689249987958</v>
+        <v>50.90334833913198</v>
       </c>
       <c r="AD91" t="inlineStr">
         <is>
-          <t>no_attack</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -9881,6 +9881,100 @@
         <v>50.55884291048435</v>
       </c>
       <c r="AD100" t="inlineStr">
+        <is>
+          <t>no_attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.000162434536366</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-175.5341504841744</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-38.76276792025213</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.999938824358635</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-162.9926894603148</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-20.99677292440737</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.9999471828247739</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-85.01030070354749</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-2.822174136951327</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.9827793599944686</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-0.001612086020067537</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.00572361854919807</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.967351004661399</v>
+      </c>
+      <c r="P101" t="n">
+        <v>119.4000390566221</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>30.6149346972324</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.9993610735921438</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.005668847211677187</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.002512471694509341</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.9790524351486181</v>
+      </c>
+      <c r="V101" t="n">
+        <v>132.6633442418806</v>
+      </c>
+      <c r="W101" t="n">
+        <v>35.71666881398071</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.9920434121104063</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>-0.0008621410377521787</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>-0.003418639295871666</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0.9496181754245832</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>165.8316653306817</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>51.01676345492148</v>
+      </c>
+      <c r="AD101" t="inlineStr">
         <is>
           <t>no_attack</t>
         </is>
